--- a/Test/temperature.xlsx
+++ b/Test/temperature.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolai Fransen\Documents\GitHub\Semester-Project-PED1\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{01FBEBF9-E5C2-4381-B726-4FEDAE66E83A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12438" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -74,9 +75,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="da-DK"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -88,7 +89,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Thermal Test V1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -127,10 +152,15 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Heat sink</c:v>
+          </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="19050" cap="rnd" cmpd="sng">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="0"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -151,153 +181,213 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.10288651616332768"/>
+                  <c:y val="0.12737913195633155"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$1:$A$20</c:f>
+              <c:f>Sheet1!$A$2:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>18</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>22</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>24</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>26</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>28</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>30</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>32</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>34</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>36</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>38</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$1:$B$20</c:f>
+              <c:f>Sheet1!$B$2:$B$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>35</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>50</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>55</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>58</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>60</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>62</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>65</c:v>
+                  <c:v>65.3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>65.3</c:v>
+                  <c:v>66.8</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>66.8</c:v>
+                  <c:v>68.3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>68.3</c:v>
+                  <c:v>69.599999999999994</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>69.599999999999994</c:v>
+                  <c:v>69.7</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>69.7</c:v>
+                  <c:v>70.599999999999994</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>70.599999999999994</c:v>
+                  <c:v>71.099999999999994</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>71.099999999999994</c:v>
+                  <c:v>71.400000000000006</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>71.400000000000006</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>72</c:v>
+                  <c:v>71.7</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>71.7</c:v>
+                  <c:v>72.900000000000006</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>72.900000000000006</c:v>
+                  <c:v>73.099999999999994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FE6D-4CE0-B0A5-C557869698E3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>Coil</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="0"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -318,145 +408,200 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="8.7063731353201099E-2"/>
+                  <c:y val="-0.15985507246376812"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$1:$A$20</c:f>
+              <c:f>Sheet1!$A$2:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>18</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>22</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>24</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>26</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>28</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>30</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>32</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>34</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>36</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>38</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$1:$C$20</c:f>
+              <c:f>Sheet1!$C$2:$C$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>38</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>49</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>53</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>58</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>60</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>66</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>69</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>70</c:v>
+                  <c:v>73.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>73.5</c:v>
+                  <c:v>75.599999999999994</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>75.599999999999994</c:v>
+                  <c:v>77.7</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>77.7</c:v>
+                  <c:v>79.2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>79.2</c:v>
+                  <c:v>80.599999999999994</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>80.599999999999994</c:v>
+                  <c:v>82.4</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>82.4</c:v>
+                  <c:v>83.7</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>83.7</c:v>
+                  <c:v>85.2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>85.2</c:v>
+                  <c:v>86.3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>86.3</c:v>
+                  <c:v>87.9</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>87.9</c:v>
+                  <c:v>88.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FE6D-4CE0-B0A5-C557869698E3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -603,7 +748,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1230,20 +1374,26 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>519112</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>134302</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>214312</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>469582</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>130492</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1523,16 +1673,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1">
         <v>0</v>
       </c>
@@ -1543,7 +1693,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>2</v>
       </c>
@@ -1554,7 +1704,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>4</v>
       </c>
@@ -1565,7 +1715,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>6</v>
       </c>
@@ -1576,7 +1726,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>8</v>
       </c>
@@ -1587,7 +1737,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>10</v>
       </c>
@@ -1598,7 +1748,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>12</v>
       </c>
@@ -1609,7 +1759,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>14</v>
       </c>
@@ -1620,7 +1770,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>16</v>
       </c>
@@ -1631,7 +1781,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>18</v>
       </c>
@@ -1642,7 +1792,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>20</v>
       </c>
@@ -1653,7 +1803,7 @@
         <v>73.5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>22</v>
       </c>
@@ -1664,7 +1814,7 @@
         <v>75.599999999999994</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>24</v>
       </c>
@@ -1675,7 +1825,7 @@
         <v>77.7</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>26</v>
       </c>
@@ -1686,7 +1836,7 @@
         <v>79.2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>28</v>
       </c>
@@ -1697,7 +1847,7 @@
         <v>80.599999999999994</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <v>30</v>
       </c>
@@ -1708,7 +1858,7 @@
         <v>82.4</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <v>32</v>
       </c>
@@ -1719,7 +1869,7 @@
         <v>83.7</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <v>34</v>
       </c>
@@ -1730,7 +1880,7 @@
         <v>85.2</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <v>36</v>
       </c>
@@ -1741,7 +1891,7 @@
         <v>86.3</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <v>38</v>
       </c>
@@ -1752,7 +1902,7 @@
         <v>87.9</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <v>40</v>
       </c>
